--- a/biology/Botanique/Diagramme_floral/Diagramme_floral.xlsx
+++ b/biology/Botanique/Diagramme_floral/Diagramme_floral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un diagramme floral est une représentation schématique de l'organisation des pièces florales d'une fleur. Il a été défini par John Henry Schaffner en 1916[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un diagramme floral est une représentation schématique de l'organisation des pièces florales d'une fleur. Il a été défini par John Henry Schaffner en 1916.
 Il permet d'identifier facilement la famille d'une plante.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes pièces florales sont schématisées en position anatomique comme pour une coupe transversale de la fleur de l'extérieur vers l'intérieur (les numéros correspondent au dessin ci-contre) : 
 L'axe de l'inflorescence, correspondant au pédoncule floral (s'il est absent, on le dessine en pointillés) toujours représenté en haut : avec la bractée, il définit l'axe de la fleur ;
